--- a/indata/stratified_EA_rates.xlsx
+++ b/indata/stratified_EA_rates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\indata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\indata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D90EA-C719-4B94-84A3-71870A2BBF14}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="88425" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90855" yWindow="0" windowWidth="21915" windowHeight="11865"/>
   </bookViews>
   <sheets>
-    <sheet name="EA_incidence" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculation of wted EA rates" sheetId="2" r:id="rId2"/>
+    <sheet name="SEER18 EA_incidence (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="SEER9 EA_incidence" sheetId="1" r:id="rId2"/>
+    <sheet name="Calculation of wted BE-EA rates" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>age</t>
   </si>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +501,8 @@
       <c r="A2">
         <v>42</v>
       </c>
-      <c r="B2">
-        <v>1.52</v>
+      <c r="B2" s="1">
+        <v>1.2166666666666666</v>
       </c>
       <c r="C2" s="1">
         <f>$C$6*(1.04^($A2-62))</f>
@@ -514,8 +514,8 @@
       <c r="E2" s="1">
         <v>242.19999999999996</v>
       </c>
-      <c r="F2" s="8">
-        <v>0.12</v>
+      <c r="F2" s="1">
+        <v>0.15</v>
       </c>
       <c r="G2" s="8">
         <f>$C$6*0.5*(1.04^($A2-62))</f>
@@ -528,7 +528,7 @@
         <v>155</v>
       </c>
       <c r="J2" s="1">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="1">
         <f>$C$6*0.65*(1.04^($A2-62))</f>
@@ -545,8 +545,8 @@
       <c r="A3">
         <v>47</v>
       </c>
-      <c r="B3">
-        <v>2.9799999999999995</v>
+      <c r="B3" s="1">
+        <v>3.0999999999999996</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C5" si="0">$C$6*(1.04^($A3-62))</f>
@@ -558,8 +558,8 @@
       <c r="E3" s="1">
         <v>372.4</v>
       </c>
-      <c r="F3" s="8">
-        <v>0.5</v>
+      <c r="F3" s="1">
+        <v>0.43333333333333335</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G11" si="1">$C$6*0.5*(1.04^($A3-62))</f>
@@ -572,7 +572,7 @@
         <v>237.00000000000003</v>
       </c>
       <c r="J3" s="1">
-        <v>0.32</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K11" si="2">$C$6*0.65*(1.04^($A3-62))</f>
@@ -589,8 +589,8 @@
       <c r="A4">
         <v>52</v>
       </c>
-      <c r="B4">
-        <v>5.0999999999999996</v>
+      <c r="B4" s="1">
+        <v>5.416666666666667</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -602,8 +602,8 @@
       <c r="E4" s="1">
         <v>595.9</v>
       </c>
-      <c r="F4" s="8">
-        <v>0.82</v>
+      <c r="F4" s="1">
+        <v>0.68333333333333346</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
@@ -616,7 +616,7 @@
         <v>367.5</v>
       </c>
       <c r="J4" s="1">
-        <v>1.04</v>
+        <v>1.6333333333333335</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
@@ -633,8 +633,8 @@
       <c r="A5">
         <v>57</v>
       </c>
-      <c r="B5">
-        <v>10.299999999999999</v>
+      <c r="B5" s="1">
+        <v>10.066666666666665</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -646,8 +646,8 @@
       <c r="E5" s="1">
         <v>891.9</v>
       </c>
-      <c r="F5" s="8">
-        <v>1.2</v>
+      <c r="F5" s="1">
+        <v>1.2833333333333332</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
@@ -660,7 +660,7 @@
         <v>531.79999999999995</v>
       </c>
       <c r="J5" s="1">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
@@ -677,8 +677,8 @@
       <c r="A6">
         <v>62</v>
       </c>
-      <c r="B6">
-        <v>18.260000000000002</v>
+      <c r="B6" s="1">
+        <v>16.766666666666666</v>
       </c>
       <c r="C6" s="9">
         <v>420</v>
@@ -689,8 +689,8 @@
       <c r="E6" s="1">
         <v>1262.5999999999999</v>
       </c>
-      <c r="F6" s="8">
-        <v>2.34</v>
+      <c r="F6" s="1">
+        <v>1.8333333333333337</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
@@ -703,7 +703,7 @@
         <v>751.5</v>
       </c>
       <c r="J6" s="1">
-        <v>6.68</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
@@ -720,8 +720,8 @@
       <c r="A7">
         <v>67</v>
       </c>
-      <c r="B7">
-        <v>24.619999999999997</v>
+      <c r="B7" s="1">
+        <v>22.833333333333332</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C11" si="3">$C$6*(1.04^($A7-62))</f>
@@ -733,8 +733,8 @@
       <c r="E7" s="1">
         <v>1750.7000000000003</v>
       </c>
-      <c r="F7" s="8">
-        <v>2.8</v>
+      <c r="F7" s="1">
+        <v>2.5500000000000003</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
@@ -747,7 +747,7 @@
         <v>1133.7</v>
       </c>
       <c r="J7" s="1">
-        <v>3.96</v>
+        <v>4.5666666666666664</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
@@ -764,8 +764,8 @@
       <c r="A8">
         <v>72</v>
       </c>
-      <c r="B8">
-        <v>27.080000000000002</v>
+      <c r="B8" s="1">
+        <v>26.549999999999997</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
@@ -777,8 +777,8 @@
       <c r="E8" s="1">
         <v>2695.7</v>
       </c>
-      <c r="F8" s="8">
-        <v>3.9200000000000004</v>
+      <c r="F8" s="1">
+        <v>3.2666666666666671</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
@@ -791,7 +791,7 @@
         <v>1833.1</v>
       </c>
       <c r="J8" s="1">
-        <v>6.9799999999999995</v>
+        <v>5.3499999999999988</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
@@ -808,8 +808,8 @@
       <c r="A9">
         <v>77</v>
       </c>
-      <c r="B9">
-        <v>35.58</v>
+      <c r="B9" s="1">
+        <v>29.733333333333334</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
@@ -821,8 +821,8 @@
       <c r="E9" s="1">
         <v>4257.6000000000004</v>
       </c>
-      <c r="F9" s="8">
-        <v>4.18</v>
+      <c r="F9" s="1">
+        <v>4</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
@@ -835,7 +835,7 @@
         <v>3024</v>
       </c>
       <c r="J9" s="1">
-        <v>4.04</v>
+        <v>4.2166666666666668</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
@@ -852,8 +852,8 @@
       <c r="A10" s="5">
         <v>82</v>
       </c>
-      <c r="B10" s="5">
-        <v>33.5</v>
+      <c r="B10" s="1">
+        <v>30.2</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="3"/>
@@ -865,8 +865,8 @@
       <c r="E10" s="1">
         <v>7103</v>
       </c>
-      <c r="F10" s="8">
-        <v>6</v>
+      <c r="F10" s="1">
+        <v>5.583333333333333</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
@@ -879,7 +879,7 @@
         <v>5258.6</v>
       </c>
       <c r="J10" s="1">
-        <v>9.3000000000000007</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="2"/>
@@ -896,8 +896,8 @@
       <c r="A11" s="5">
         <v>87</v>
       </c>
-      <c r="B11" s="5">
-        <v>29.880000000000003</v>
+      <c r="B11" s="1">
+        <v>28.416666666666668</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="3"/>
@@ -909,8 +909,8 @@
       <c r="E11" s="1">
         <v>15000.3</v>
       </c>
-      <c r="F11" s="8">
-        <v>5.88</v>
+      <c r="F11" s="1">
+        <v>5.2333333333333334</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
@@ -923,7 +923,7 @@
         <v>13079.099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>3.4799999999999995</v>
+        <v>3.65</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="2"/>
@@ -991,7 +991,565 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>1.52</v>
+      </c>
+      <c r="C2" s="1">
+        <f>$C$6*(1.04^($A2-62))</f>
+        <v>191.68251740454266</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="E2" s="1">
+        <v>242.19999999999996</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="8">
+        <f>$C$6*0.5*(1.04^($A2-62))</f>
+        <v>95.841258702271332</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="I2" s="8">
+        <v>155</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="K2" s="1">
+        <f>$C$6*0.65*(1.04^($A2-62))</f>
+        <v>124.59363631295273</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M2" s="1">
+        <v>344.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>2.9799999999999995</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C5" si="0">$C$6*(1.04^($A3-62))</f>
+        <v>233.21109113957539</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.6252380952380947</v>
+      </c>
+      <c r="E3" s="1">
+        <v>372.4</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G11" si="1">$C$6*0.5*(1.04^($A3-62))</f>
+        <v>116.60554556978769</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I3" s="8">
+        <v>237.00000000000003</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K11" si="2">$C$6*0.65*(1.04^($A3-62))</f>
+        <v>151.58720924072401</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.24975609756097567</v>
+      </c>
+      <c r="M3" s="1">
+        <v>521.79999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>283.73695090683538</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>595.9</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="1"/>
+        <v>141.86847545341769</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.61499999999999988</v>
+      </c>
+      <c r="I4" s="8">
+        <v>367.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>184.42901808944299</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.79733333333333334</v>
+      </c>
+      <c r="M4" s="1">
+        <v>817.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>10.299999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>345.20938483892763</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10.083916083916083</v>
+      </c>
+      <c r="E5" s="1">
+        <v>891.9</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>172.60469241946382</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.97777777777777786</v>
+      </c>
+      <c r="I5" s="8">
+        <v>531.79999999999995</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>224.38610014530298</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.589240506329114</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1324.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C6" s="9">
+        <v>420</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16.725546218487395</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1262.5999999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.8263414634146344</v>
+      </c>
+      <c r="I6" s="8">
+        <v>751.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6.68</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.4051908396946562</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1984.9000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>24.619999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C11" si="3">$C$6*(1.04^($A7-62))</f>
+        <v>510.99421900800013</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21.984831804281338</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1750.7000000000003</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
+        <v>255.49710950400006</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.177777777777778</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1133.7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>332.14624235520012</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.828487084870849</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2617.6999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>27.080000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>621.70259966570472</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25.830153846153856</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2695.7</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3.9200000000000004</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="1"/>
+        <v>310.85129983285236</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3.4237974683544308</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1833.1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6.9799999999999995</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>404.10668978270809</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.3112574850299401</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3708.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>35.58</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>756.39627231290501</v>
+      </c>
+      <c r="D9" s="1">
+        <v>34.957155361050326</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4257.6000000000004</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>378.19813615645251</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3.6673584905660377</v>
+      </c>
+      <c r="I9" s="8">
+        <v>3024</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>491.65757700338827</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.6189578163771716</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5248.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>82</v>
+      </c>
+      <c r="B10" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="3"/>
+        <v>920.27172007403692</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36.08229166666667</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7103</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>460.13586003701846</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5.6444444444444439</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5258.6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>598.17661804812406</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.7959349593495944</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7713.1999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>87</v>
+      </c>
+      <c r="B11" s="5">
+        <v>29.880000000000003</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="3"/>
+        <v>1119.6512592247179</v>
+      </c>
+      <c r="D11" s="1">
+        <v>37.935207373271894</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15000.3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5.88</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>559.82562961235897</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.1562790697674412</v>
+      </c>
+      <c r="I11" s="8">
+        <v>13079.099999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>727.77331849606662</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5.0173493975903609</v>
+      </c>
+      <c r="M11" s="1">
+        <v>13291.7</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
